--- a/00 S&P 500 Index Company List 00.xlsx
+++ b/00 S&P 500 Index Company List 00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5574EFF6-D613-4EC1-A21E-2976005CC08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE18A80-0D8B-4240-89BD-1E4BB2E2D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPX. Index Composition" sheetId="1" r:id="rId1"/>
@@ -4433,7 +4433,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -4516,7 +4516,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -4526,6 +4526,18 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4546,23 +4558,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -4581,7 +4577,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4600,7 +4596,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4619,28 +4615,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4686,36 +4686,36 @@
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{58546FC5-4843-4E3B-A2A6-DA610666EE37}" name="Ticker"/>
     <tableColumn id="2" xr3:uid="{307F7D0E-36FE-4C43-A4DC-61CDB7C079A8}" name="Company"/>
-    <tableColumn id="3" xr3:uid="{AD238CA8-6037-41D4-9AC5-56F6BBD2D5C3}" name="Price" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{99769318-525A-4C18-9E39-B4F76D9D42C1}" name="Share Count " dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B2418DF8-F752-43D8-A770-2FB67BDAC1A0}" name="MC ($M)" dataDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{AD238CA8-6037-41D4-9AC5-56F6BBD2D5C3}" name="Price" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{99769318-525A-4C18-9E39-B4F76D9D42C1}" name="Share Count " dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B2418DF8-F752-43D8-A770-2FB67BDAC1A0}" name="MC ($M)" dataDxfId="9" dataCellStyle="Currency">
       <calculatedColumnFormula>Table3[[#This Row],[Price]]*Table3[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{68423693-37B1-4B2D-A784-7C194A88485F}" name="Cash ($M)" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{43F60C07-82AB-44B6-AE8A-21DE05F39B3C}" name="Debt ($M)" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{3970C808-D1F6-4ABF-A15F-3E76060CFD95}" name="EV ($M)" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{68423693-37B1-4B2D-A784-7C194A88485F}" name="Cash ($M)" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{43F60C07-82AB-44B6-AE8A-21DE05F39B3C}" name="Debt ($M)" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{3970C808-D1F6-4ABF-A15F-3E76060CFD95}" name="EV ($M)" dataDxfId="6" dataCellStyle="Currency">
       <calculatedColumnFormula>Table3[[#This Row],[MC ($M)]]-Table3[[#This Row],[Cash ($M)]]+Table3[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{469F3354-F739-48DC-AE81-A45C218A4679}" name="NPV"/>
     <tableColumn id="10" xr3:uid="{A8688289-C1FE-424A-BF3F-C04C19676BEC}" name="FV"/>
     <tableColumn id="11" xr3:uid="{31FEAECD-E702-4274-9AAB-AF69D61D535E}" name="Upside"/>
-    <tableColumn id="12" xr3:uid="{179BCB16-E32F-4844-81CA-4EB929E79AA9}" name="β (1-year avg.)" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{C8767A78-65F3-4F7F-AEE1-672B75DC6933}" name="1σ ± move " dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{179BCB16-E32F-4844-81CA-4EB929E79AA9}" name="β (1-year avg.)" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{C8767A78-65F3-4F7F-AEE1-672B75DC6933}" name="1σ ± move " dataDxfId="4" dataCellStyle="Percent"/>
     <tableColumn id="14" xr3:uid="{E450B9D9-06B3-48C9-9483-2193E4D54347}" name="FY Earnings Estimates" dataCellStyle="Currency"/>
     <tableColumn id="15" xr3:uid="{C492DE63-2E90-4C35-95BD-38BFEA99453F}" name="FY Earnings Estimates (2-years)" dataCellStyle="Currency"/>
-    <tableColumn id="16" xr3:uid="{919A052E-9880-4A29-81BF-A6A742969E6D}" name="Fwd. P/E" dataDxfId="7">
+    <tableColumn id="16" xr3:uid="{919A052E-9880-4A29-81BF-A6A742969E6D}" name="Fwd. P/E" dataDxfId="3">
       <calculatedColumnFormula>Table3[[#This Row],[Price]]/Table3[[#This Row],[FY Earnings Estimates]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{DD4400C5-1EB7-41A2-B76A-3930FECF41A0}" name="Fwd. P/E (2-years)" dataDxfId="6">
+    <tableColumn id="17" xr3:uid="{DD4400C5-1EB7-41A2-B76A-3930FECF41A0}" name="Fwd. P/E (2-years)" dataDxfId="2">
       <calculatedColumnFormula>Table3[[#This Row],[Price]]/Table3[[#This Row],[FY Earnings Estimates (2-years)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{78EE1439-8202-40F8-8EDB-C7AF0B79C803}" name="# of Employees"/>
     <tableColumn id="19" xr3:uid="{DCE5BADE-8DD1-450E-AE9E-3078F5F7B8BD}" name="Updated "/>
     <tableColumn id="20" xr3:uid="{3573B555-76D1-4AC2-A228-102E619D5E7E}" name="GICS Sector"/>
     <tableColumn id="24" xr3:uid="{03E2FC50-2008-4522-AEBA-4EA1F4496E68}" name="GICS Sub-Industry"/>
-    <tableColumn id="23" xr3:uid="{F99F2199-770C-4734-BC48-A06079B04FE2}" name="Date added to index" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{F99F2199-770C-4734-BC48-A06079B04FE2}" name="Date added to index" dataDxfId="1"/>
     <tableColumn id="22" xr3:uid="{CBCF1F3E-6AC2-40F9-976A-E8D0B69B1FCF}" name="Founded"/>
-    <tableColumn id="21" xr3:uid="{0DAF599B-D7D1-4F9F-8842-FD3CD65DF02C}" name="Headquarters Location" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{0DAF599B-D7D1-4F9F-8842-FD3CD65DF02C}" name="Headquarters Location" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4986,7 +4986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Y505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>

--- a/00 S&P 500 Index Company List 00.xlsx
+++ b/00 S&P 500 Index Company List 00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE18A80-0D8B-4240-89BD-1E4BB2E2D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C32E87-9930-49F0-BE42-36336A8C25B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
